--- a/ActiTime/src/test/resources/data/ActiTimeTestNg.xlsx
+++ b/ActiTime/src/test/resources/data/ActiTimeTestNg.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkana\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4AFB8-5806-4A5D-BBE6-1A7E0BFF8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{04F10947-B07D-4EFA-9861-501BCB53BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
     <sheet name="Task" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>CustomerName</t>
   </si>
@@ -144,16 +140,61 @@
   </si>
   <si>
     <t>manufacturing</t>
+  </si>
+  <si>
+    <t>Sagar1</t>
+  </si>
+  <si>
+    <t>Sagar2</t>
+  </si>
+  <si>
+    <t>Sagar3</t>
+  </si>
+  <si>
+    <t>Sagar4</t>
+  </si>
+  <si>
+    <t>Sagar5</t>
+  </si>
+  <si>
+    <t>Sagar6</t>
+  </si>
+  <si>
+    <t>Sagar7</t>
+  </si>
+  <si>
+    <t>Sagar8</t>
+  </si>
+  <si>
+    <t>Sagar9</t>
+  </si>
+  <si>
+    <t>Sagar10</t>
+  </si>
+  <si>
+    <t>Sagar11</t>
+  </si>
+  <si>
+    <t>Sagar12</t>
+  </si>
+  <si>
+    <t>Sagar13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +562,112 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -601,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2674056-C2EB-4074-9552-120D54945176}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
